--- a/data/normalized/mdm.xlsx
+++ b/data/normalized/mdm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/repos/arunvambur/personal-analytics/data/normalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3884F3-C019-C348-A0B0-2BF842A73223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122506ED-AD9B-BE4E-BBA0-4996CB738670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" firstSheet="6" activeTab="12" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" firstSheet="6" activeTab="18" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="5" r:id="rId1"/>
@@ -4631,7 +4631,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4978,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A709B3-B1DC-9244-AA7D-F6E4B21740A4}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:E68"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H68" sqref="H54:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6700,7 +6700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A95E7A-EFAF-9D4C-A02C-2CD96DAD0E8A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -39156,7 +39158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB17E5-9737-064C-9940-E5393723E816}">
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>

--- a/data/normalized/mdm.xlsx
+++ b/data/normalized/mdm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/repos/arunvambur/personal-analytics/data/normalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122506ED-AD9B-BE4E-BBA0-4996CB738670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DFFD6-7594-9548-B4E3-E401ED677E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" firstSheet="6" activeTab="18" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="6" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="5" r:id="rId1"/>
@@ -2642,7 +2642,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2683,27 +2683,22 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2755,11 +2750,11 @@
       <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3134,8 +3129,8 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AA226644-822D-0144-80ED-9B295E5C69CC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{85819774-7B4A-8A48-8235-C5A97D157FE1}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{E21CFFCC-B366-AF4C-9429-07B760EB6AD7}" name="Scheme"/>
     <tableColumn id="9" xr3:uid="{9D4E1016-5E5A-7B41-AE4B-DFCD445AD6D4}" name="Particulars"/>
     <tableColumn id="6" xr3:uid="{CE9A0357-2B9E-C04C-9B44-E2D25E7F28F5}" name="Rate of Interest"/>
@@ -3166,13 +3161,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69B874BA-114F-C340-93F2-D2A9203F98D4}" name="Table1" displayName="Table1" ref="A1:P102" totalsRowShown="0">
-  <autoFilter ref="A1:P102" xr:uid="{69B874BA-114F-C340-93F2-D2A9203F98D4}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="IRCTC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P102" xr:uid="{69B874BA-114F-C340-93F2-D2A9203F98D4}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{402B9537-46B3-D440-B7E5-FB14BE83DAEC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{27B331BE-0616-4343-992A-640D2131D6EE}" name="Account"/>
@@ -4978,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A709B3-B1DC-9244-AA7D-F6E4B21740A4}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H68" sqref="H54:H68"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5108,16 +5097,16 @@
       <c r="C5" s="5">
         <v>44166</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="28">
         <v>1655</v>
       </c>
@@ -5132,16 +5121,16 @@
       <c r="C6" s="5">
         <v>44197</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="28">
         <v>1554</v>
       </c>
@@ -5156,16 +5145,16 @@
       <c r="C7" s="5">
         <v>44228</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="28">
         <v>1554</v>
       </c>
@@ -5180,16 +5169,16 @@
       <c r="C8" s="5">
         <v>44256</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="28">
         <v>1404</v>
       </c>
@@ -5204,16 +5193,16 @@
       <c r="C9" s="5">
         <v>44286</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="28">
         <v>1554</v>
       </c>
@@ -5228,16 +5217,16 @@
       <c r="C10" s="5">
         <v>44316</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="28">
         <v>1504</v>
       </c>
@@ -5252,16 +5241,16 @@
       <c r="C11" s="5">
         <v>44348</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="28">
         <v>1554</v>
       </c>
@@ -5276,16 +5265,16 @@
       <c r="C12" s="5">
         <v>44378</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="28">
         <v>1504</v>
       </c>
@@ -5300,16 +5289,16 @@
       <c r="C13" s="5">
         <v>44408</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="28">
         <v>1554</v>
       </c>
@@ -5324,16 +5313,16 @@
       <c r="C14" s="5">
         <v>44440</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="28">
         <v>1554</v>
       </c>
@@ -5348,16 +5337,16 @@
       <c r="C15" s="5">
         <v>44470</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="28">
         <v>1504</v>
       </c>
@@ -5372,16 +5361,16 @@
       <c r="C16" s="5">
         <v>44501</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="28">
         <v>1554</v>
       </c>
@@ -5396,16 +5385,16 @@
       <c r="C17" s="5">
         <v>44531</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="28">
         <v>1504</v>
       </c>
@@ -5420,16 +5409,16 @@
       <c r="C18" s="5">
         <v>44562</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="28">
         <v>1554</v>
       </c>
@@ -5444,17 +5433,17 @@
       <c r="C19" s="5">
         <v>44593</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="37">
+      <c r="G19" s="34"/>
+      <c r="H19">
         <v>1554</v>
       </c>
     </row>
@@ -5468,16 +5457,16 @@
       <c r="C20" s="5">
         <v>44621</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="28">
         <v>1404</v>
       </c>
@@ -5492,16 +5481,16 @@
       <c r="C21" s="5">
         <v>44651</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="28">
         <v>1554</v>
       </c>
@@ -5516,16 +5505,16 @@
       <c r="C22" s="5">
         <v>44681</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="28">
         <v>1504</v>
       </c>
@@ -5540,16 +5529,16 @@
       <c r="C23" s="5">
         <v>44713</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="G23" s="35"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="28">
         <v>1554</v>
       </c>
@@ -5564,16 +5553,16 @@
       <c r="C24" s="5">
         <v>44743</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="28">
         <v>1504</v>
       </c>
@@ -5588,16 +5577,16 @@
       <c r="C25" s="5">
         <v>44774</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="28">
         <v>1554</v>
       </c>
@@ -5612,16 +5601,16 @@
       <c r="C26" s="5">
         <v>44805</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="28">
         <v>1554</v>
       </c>
@@ -5636,16 +5625,16 @@
       <c r="C27" s="5">
         <v>44835</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="27" t="s">
         <v>602</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="28">
         <v>1504</v>
       </c>
@@ -5660,16 +5649,16 @@
       <c r="C28" s="5">
         <v>44866</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="27" t="s">
         <v>603</v>
       </c>
-      <c r="G28" s="35"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="28">
         <v>1554</v>
       </c>
@@ -5684,16 +5673,16 @@
       <c r="C29" s="5">
         <v>44896</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="G29" s="35"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="28">
         <v>1504</v>
       </c>
@@ -5708,16 +5697,16 @@
       <c r="C30" s="5">
         <v>44926</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="G30" s="35"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="28">
         <v>1554</v>
       </c>
@@ -5732,16 +5721,16 @@
       <c r="C31" s="5">
         <v>44958</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="28">
         <v>1554</v>
       </c>
@@ -5756,16 +5745,16 @@
       <c r="C32" s="5">
         <v>44986</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="28">
         <v>1404</v>
       </c>
@@ -5780,16 +5769,16 @@
       <c r="C33" s="5">
         <v>45015</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="28">
         <v>1554</v>
       </c>
@@ -5804,16 +5793,16 @@
       <c r="C34" s="5">
         <v>45045</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="28">
         <v>1504</v>
       </c>
@@ -5828,16 +5817,16 @@
       <c r="C35" s="5">
         <v>45078</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="28">
         <v>1554</v>
       </c>
@@ -5852,16 +5841,16 @@
       <c r="C36" s="5">
         <v>45108</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="28">
         <v>1504</v>
       </c>
@@ -5876,16 +5865,16 @@
       <c r="C37" s="5">
         <v>45139</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="28">
         <v>940</v>
       </c>
@@ -5900,16 +5889,16 @@
       <c r="C38" s="5">
         <v>45170</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="28">
         <v>1398</v>
       </c>
@@ -5924,16 +5913,16 @@
       <c r="C39" s="5">
         <v>45199</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="28">
         <v>1353</v>
       </c>
@@ -5948,16 +5937,16 @@
       <c r="C40" s="5">
         <v>45231</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="28">
         <v>1398</v>
       </c>
@@ -5972,16 +5961,16 @@
       <c r="C41" s="5">
         <v>45261</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="28">
         <v>1353</v>
       </c>
@@ -5996,16 +5985,16 @@
       <c r="C42" s="5">
         <v>45292</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="28">
         <v>1398</v>
       </c>
@@ -6020,16 +6009,16 @@
       <c r="C43" s="5">
         <v>45323</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="G43" s="36"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="28">
         <v>1395</v>
       </c>
@@ -6044,16 +6033,16 @@
       <c r="C44" s="5">
         <v>45352</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="28">
         <v>1305</v>
       </c>
@@ -6068,16 +6057,16 @@
       <c r="C45" s="5">
         <v>45381</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="28">
         <v>1395</v>
       </c>
@@ -6092,16 +6081,16 @@
       <c r="C46" s="5">
         <v>45412</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="28">
         <v>1500</v>
       </c>
@@ -6116,16 +6105,16 @@
       <c r="C47" s="5">
         <v>45444</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="28">
         <v>1550</v>
       </c>
@@ -6140,16 +6129,16 @@
       <c r="C48" s="5">
         <v>45474</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="28">
         <v>1500</v>
       </c>
@@ -6164,16 +6153,16 @@
       <c r="C49" s="5">
         <v>45505</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="28">
         <v>940</v>
       </c>
@@ -6188,16 +6177,16 @@
       <c r="C50" s="5">
         <v>45535</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="28">
         <v>1395</v>
       </c>
@@ -6212,16 +6201,16 @@
       <c r="C51" s="5">
         <v>45566</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="G51" s="36"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="28">
         <v>1350</v>
       </c>
@@ -6236,16 +6225,16 @@
       <c r="C52" s="5">
         <v>45596</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="28">
         <v>1395</v>
       </c>
@@ -6260,16 +6249,16 @@
       <c r="C53" s="5">
         <v>45626</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="28">
         <v>1350</v>
       </c>
@@ -6284,16 +6273,16 @@
       <c r="C54" s="5">
         <v>45658</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="27" t="s">
         <v>629</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="35"/>
       <c r="H54" s="28">
         <v>1395</v>
       </c>
@@ -6308,16 +6297,16 @@
       <c r="C55" s="5">
         <v>45689</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="27" t="s">
         <v>630</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="28">
         <v>1398</v>
       </c>
@@ -6332,16 +6321,16 @@
       <c r="C56" s="5">
         <v>45717</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="G56" s="36"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="28">
         <v>1263</v>
       </c>
@@ -6356,16 +6345,16 @@
       <c r="C57" s="5">
         <v>45745</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="G57" s="36"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="28">
         <v>1398</v>
       </c>
@@ -6380,16 +6369,16 @@
       <c r="C58" s="5">
         <v>45777</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="28">
         <v>1504</v>
       </c>
@@ -6404,13 +6393,13 @@
       <c r="C59" s="5">
         <v>44197</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="27" t="s">
         <v>634</v>
       </c>
       <c r="H59" s="28">
@@ -6427,13 +6416,13 @@
       <c r="C60" s="5">
         <v>44378</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="F60" s="27" t="s">
         <v>635</v>
       </c>
       <c r="H60" s="28">
@@ -6450,13 +6439,13 @@
       <c r="C61" s="5">
         <v>44562</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="27" t="s">
         <v>636</v>
       </c>
       <c r="H61" s="28">
@@ -6473,13 +6462,13 @@
       <c r="C62" s="5">
         <v>44743</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="27" t="s">
         <v>638</v>
       </c>
       <c r="H62" s="28">
@@ -6496,13 +6485,13 @@
       <c r="C63" s="5">
         <v>44928</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="27" t="s">
         <v>639</v>
       </c>
       <c r="H63" s="28">
@@ -6519,20 +6508,20 @@
       <c r="C64" s="5">
         <v>45108</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="27" t="s">
         <v>640</v>
       </c>
       <c r="H64" s="28">
         <v>3675</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="32" t="s">
         <v>14</v>
       </c>
@@ -6542,20 +6531,20 @@
       <c r="C65" s="5">
         <v>45292</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="27" t="s">
         <v>641</v>
       </c>
       <c r="H65" s="28">
         <v>4025</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8">
       <c r="A66" s="32" t="s">
         <v>14</v>
       </c>
@@ -6565,20 +6554,20 @@
       <c r="C66" s="5">
         <v>45474</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="27" t="s">
         <v>642</v>
       </c>
       <c r="H66" s="28">
         <v>4025</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8">
       <c r="A67" s="32" t="s">
         <v>14</v>
       </c>
@@ -6588,20 +6577,20 @@
       <c r="C67" s="5">
         <v>45658</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="27" t="s">
         <v>643</v>
       </c>
       <c r="H67" s="28">
         <v>4025</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8">
       <c r="A68" s="30" t="s">
         <v>14</v>
       </c>
@@ -6611,20 +6600,18 @@
       <c r="C68" s="5">
         <v>45839</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="G68" s="40"/>
       <c r="H68" s="28">
         <v>4025</v>
       </c>
-      <c r="I68" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6700,7 +6687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A95E7A-EFAF-9D4C-A02C-2CD96DAD0E8A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
@@ -7302,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D0F15-B5AF-2B43-8EE8-D5A767C72F77}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7370,7 +7357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7423,7 +7410,7 @@
         <v>7111.97</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7476,7 +7463,7 @@
         <v>11084.45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7529,7 +7516,7 @@
         <v>8506.4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7582,7 +7569,7 @@
         <v>5243.1399999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7635,7 +7622,7 @@
         <v>14610.68</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7688,7 +7675,7 @@
         <v>14711.22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7729,7 +7716,7 @@
         <v>14904</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7782,7 +7769,7 @@
         <v>32294.379999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7835,7 +7822,7 @@
         <v>18197.62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7866,7 @@
         <v>43.82</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -7923,7 +7910,7 @@
         <v>43.77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -7976,7 +7963,7 @@
         <v>18428.560000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8029,7 +8016,7 @@
         <v>49233.42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8082,7 +8069,7 @@
         <v>17665.899999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8135,7 +8122,7 @@
         <v>29063.360000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -8188,7 +8175,7 @@
         <v>50076.51</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -8226,7 +8213,7 @@
         <v>19680</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -8264,7 +8251,7 @@
         <v>177120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -8302,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -8338,7 +8325,7 @@
         <v>1642.56</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -8382,7 +8369,7 @@
         <v>3187.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -8426,7 +8413,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -8470,7 +8457,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -8514,7 +8501,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -8558,7 +8545,7 @@
         <v>3251.6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -8602,7 +8589,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -8646,7 +8633,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -8690,7 +8677,7 @@
         <v>5125.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -8734,7 +8721,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -8778,7 +8765,7 @@
         <v>8984.7000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -8822,7 +8809,7 @@
         <v>2990.88</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -8866,7 +8853,7 @@
         <v>9969.6</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -8910,7 +8897,7 @@
         <v>19899</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -8954,7 +8941,7 @@
         <v>19939.2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -8998,7 +8985,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -9042,7 +9029,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9073,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -9130,7 +9117,7 @@
         <v>2255.04</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -9174,7 +9161,7 @@
         <v>1252.8</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -9218,7 +9205,7 @@
         <v>250.56</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -9262,7 +9249,7 @@
         <v>250.56</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -9300,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -9338,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -9382,7 +9369,7 @@
         <v>54521.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -9426,7 +9413,7 @@
         <v>60300</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -9470,7 +9457,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -9514,7 +9501,7 @@
         <v>26532</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -9555,7 +9542,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9599,7 +9586,7 @@
         <v>17085</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -9643,7 +9630,7 @@
         <v>8140</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -9687,7 +9674,7 @@
         <v>6911.5000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -9901,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -9942,7 +9929,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -9986,7 +9973,7 @@
         <v>26632.6</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -10024,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -10064,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -10108,7 +10095,7 @@
         <v>12670</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -10152,7 +10139,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -10196,7 +10183,7 @@
         <v>26566.61</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -10240,7 +10227,7 @@
         <v>7923.4</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -10284,7 +10271,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +10315,7 @@
         <v>842.52</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -10369,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -10413,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -10466,7 +10453,7 @@
         <v>1450.6200000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -10519,7 +10506,7 @@
         <v>1438.45</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -10572,7 +10559,7 @@
         <v>5180.51</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -10625,7 +10612,7 @@
         <v>42659.96</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -10678,7 +10665,7 @@
         <v>54193.23</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -10731,7 +10718,7 @@
         <v>4362.5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -10784,7 +10771,7 @@
         <v>4377.05</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -10837,7 +10824,7 @@
         <v>33324.130000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -10890,7 +10877,7 @@
         <v>198.07</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -10943,7 +10930,7 @@
         <v>4184.5200000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -10993,7 +10980,7 @@
         <v>2562.15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -11046,7 +11033,7 @@
         <v>1571.17</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -11099,7 +11086,7 @@
         <v>1194.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -11152,7 +11139,7 @@
         <v>3522.5099999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -11205,7 +11192,7 @@
         <v>5983.4299999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -11258,7 +11245,7 @@
         <v>1396.39</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -11311,7 +11298,7 @@
         <v>1228.1999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -11364,7 +11351,7 @@
         <v>6537.0099999999993</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -11417,7 +11404,7 @@
         <v>39647.879999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -11470,7 +11457,7 @@
         <v>3333.1199999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -11523,7 +11510,7 @@
         <v>1969.48</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -11576,7 +11563,7 @@
         <v>957.1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -11629,7 +11616,7 @@
         <v>7688.2599999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -11682,7 +11669,7 @@
         <v>3748.75</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -11735,7 +11722,7 @@
         <v>3765.7799999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -11788,7 +11775,7 @@
         <v>949.16</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -11841,7 +11828,7 @@
         <v>7287.65</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -11892,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -11945,7 +11932,7 @@
         <v>20192.489999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -11998,7 +11985,7 @@
         <v>9945.7000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -12051,7 +12038,7 @@
         <v>10046.959999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -12095,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>82</v>
       </c>
@@ -12151,7 +12138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4D69BF-FFB3-2242-8A16-C2AA6F680320}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -16728,8 +16715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E490D1BC-2804-2F4B-A84D-0FDC669319C7}">
   <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30429,8 +30416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF4798-4406-9B45-98C1-81D349601EE7}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37916,8 +37903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1561CEA-1ECD-AD45-8C88-B3FFEF6C27F6}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39158,7 +39145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB17E5-9737-064C-9940-E5393723E816}">
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>

--- a/data/normalized/mdm.xlsx
+++ b/data/normalized/mdm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/repos/arunvambur/personal-analytics/data/normalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DFFD6-7594-9548-B4E3-E401ED677E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E69880-7855-D748-9561-E5293D69516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="6" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="669">
   <si>
     <t>Person</t>
   </si>
@@ -2005,6 +2005,81 @@
   </si>
   <si>
     <t>FT-FRSB INT DEC24 TBICI007109242</t>
+  </si>
+  <si>
+    <t>ICICI Breeze Code</t>
+  </si>
+  <si>
+    <t>AXIBAN</t>
+  </si>
+  <si>
+    <t>BANMAH</t>
+  </si>
+  <si>
+    <t>BOSLIM</t>
+  </si>
+  <si>
+    <t>CMSIN</t>
+  </si>
+  <si>
+    <t>COFDAY</t>
+  </si>
+  <si>
+    <t>DCXSYS</t>
+  </si>
+  <si>
+    <t>HDFBAN</t>
+  </si>
+  <si>
+    <t>ICIBAN</t>
+  </si>
+  <si>
+    <t>IDFBAN</t>
+  </si>
+  <si>
+    <t>INDIBA</t>
+  </si>
+  <si>
+    <t>INDHOT</t>
+  </si>
+  <si>
+    <t>INFTEC</t>
+  </si>
+  <si>
+    <t>INDRAI</t>
+  </si>
+  <si>
+    <t>ITCHOT</t>
+  </si>
+  <si>
+    <t>JAIPOW</t>
+  </si>
+  <si>
+    <t>LTFINA</t>
+  </si>
+  <si>
+    <t>LARTOU</t>
+  </si>
+  <si>
+    <t>OLAELE</t>
+  </si>
+  <si>
+    <t>SIEENE</t>
+  </si>
+  <si>
+    <t>SIEMEN</t>
+  </si>
+  <si>
+    <t>SUZENE</t>
+  </si>
+  <si>
+    <t>TATCOV</t>
+  </si>
+  <si>
+    <t>TATMOT</t>
+  </si>
+  <si>
+    <t>TATSTE</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2717,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2699,6 +2774,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2745,7 +2822,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0.00"/>
     </dxf>
@@ -3077,7 +3182,7 @@
     <tableColumn id="1" xr3:uid="{10DE9821-BB62-9540-A58A-122CAD3F3AC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{D7E69AE7-23BC-174F-AB3D-BDF91431CD90}" name="Name"/>
     <tableColumn id="3" xr3:uid="{F229D4DB-0EDD-F64F-A22F-7E9FEF7A10BF}" name="DisplayName"/>
-    <tableColumn id="4" xr3:uid="{50FE2904-3015-5B45-9140-2F1B384AD178}" name="Dob" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{50FE2904-3015-5B45-9140-2F1B384AD178}" name="Dob" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{FF9E5EB0-AFB8-A946-A83B-11BAFA15FE56}" name="GenderId"/>
     <tableColumn id="6" xr3:uid="{760A2E5F-6C0B-7E42-AA60-E6E3B078F34C}" name="IsFamilyHead"/>
     <tableColumn id="7" xr3:uid="{F955C30D-D2A1-F745-A684-FB311C4A3BC5}" name="FamilyHead"/>
@@ -3111,12 +3216,12 @@
     <tableColumn id="1" xr3:uid="{1019A78D-FD88-274C-ADF7-D0B577CAF779}" name="Person"/>
     <tableColumn id="2" xr3:uid="{0C2F4C8F-C5C1-BB47-A5C8-8CA089D9554B}" name="Account"/>
     <tableColumn id="3" xr3:uid="{032CAA0E-3C9A-C74A-BEE2-1991D924B223}" name="Pran"/>
-    <tableColumn id="4" xr3:uid="{66E6423A-FFFD-5E40-A617-D3D427E17E92}" name="Contribution Date" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1682400D-E90F-6F47-9162-0DD08B859326}" name="Self Contribution" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{AED5945E-6CA4-2547-9F20-F440E51D273F}" name="Gross Contribution Amount" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BB38DA8A-92AE-9747-AB7D-C7A9255159E3}" name="Service Charges" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{12F59806-4C0F-9F43-81F2-A0B24BAC055A}" name="GST" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{2CB0527E-E725-E446-88E4-053381A9500E}" name="Net Contribution Amount" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{66E6423A-FFFD-5E40-A617-D3D427E17E92}" name="Contribution Date" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1682400D-E90F-6F47-9162-0DD08B859326}" name="Self Contribution" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AED5945E-6CA4-2547-9F20-F440E51D273F}" name="Gross Contribution Amount" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{BB38DA8A-92AE-9747-AB7D-C7A9255159E3}" name="Service Charges" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{12F59806-4C0F-9F43-81F2-A0B24BAC055A}" name="GST" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2CB0527E-E725-E446-88E4-053381A9500E}" name="Net Contribution Amount" dataDxfId="5"/>
     <tableColumn id="12" xr3:uid="{DE3D2D83-5648-0B43-8EA8-6243CE3B3EB0}" name="Account Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3129,12 +3234,12 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AA226644-822D-0144-80ED-9B295E5C69CC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{85819774-7B4A-8A48-8235-C5A97D157FE1}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{E21CFFCC-B366-AF4C-9429-07B760EB6AD7}" name="Scheme"/>
     <tableColumn id="9" xr3:uid="{9D4E1016-5E5A-7B41-AE4B-DFCD445AD6D4}" name="Particulars"/>
     <tableColumn id="6" xr3:uid="{CE9A0357-2B9E-C04C-9B44-E2D25E7F28F5}" name="Rate of Interest"/>
-    <tableColumn id="7" xr3:uid="{2DA438FA-E99D-0746-801C-DFB9D8F8A6B7}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{2DA438FA-E99D-0746-801C-DFB9D8F8A6B7}" name="Amount" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E529750B-EC3E-CD41-B54B-F2F30B0D043D}" name="Marutiry Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3142,18 +3247,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}" name="ISINTable" displayName="ISINTable" ref="A1:F31" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
-  <autoFilter ref="A1:F31" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}" name="ISINTable" displayName="ISINTable" ref="A1:G31" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+  <autoFilter ref="A1:G31" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
     <sortCondition ref="B2:B31"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C91CFA9A-AB89-9341-9F89-D481613B35F0}" name="ISIN" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{94B85035-7256-DF49-A14F-D99830860AAE}" name="Company" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{1FAF0D6D-A333-C14D-8320-F5B0EEC2AFF8}" name="NSE Symbol" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{0969A61B-61F8-2A43-9C8D-745D74851EA3}" name="BSE Code" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{F59184CE-A708-4B46-AAA4-9119706B3E96}" name="Incorporation Date" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{3F95A63A-F7FB-0F44-A472-49446749F45E}" name="ISIN Creation Date" dataDxfId="28" totalsRowDxfId="27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C91CFA9A-AB89-9341-9F89-D481613B35F0}" name="ISIN" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{94B85035-7256-DF49-A14F-D99830860AAE}" name="Company" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{1FAF0D6D-A333-C14D-8320-F5B0EEC2AFF8}" name="NSE Symbol" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{0969A61B-61F8-2A43-9C8D-745D74851EA3}" name="BSE Code" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{F59184CE-A708-4B46-AAA4-9119706B3E96}" name="Incorporation Date" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{3F95A63A-F7FB-0F44-A472-49446749F45E}" name="ISIN Creation Date" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E11E9DC1-916F-114C-991E-73874650D707}" name="ICICI Breeze Code" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3165,7 +3271,7 @@
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{402B9537-46B3-D440-B7E5-FB14BE83DAEC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{27B331BE-0616-4343-992A-640D2131D6EE}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{F8C0F30E-0A07-454A-98E4-2A39D664C705}" name="Trade Date" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{F8C0F30E-0A07-454A-98E4-2A39D664C705}" name="Trade Date" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{F66FD8B2-E1FB-9747-8FAC-221378536716}" name="ISIN"/>
     <tableColumn id="5" xr3:uid="{AB3B46B3-3390-A24B-88BF-711CB56D2780}" name="Security"/>
     <tableColumn id="6" xr3:uid="{5412213A-12EC-8941-A589-C643C34E10EB}" name="Segment"/>
@@ -3191,7 +3297,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}" name="Table15" displayName="Table15" ref="A1:N151" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}" name="Table15" displayName="Table15" ref="A1:N151" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:N151" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N151">
     <sortCondition ref="C2:C151"/>
@@ -3199,16 +3305,16 @@
   <tableColumns count="14">
     <tableColumn id="12" xr3:uid="{3840908B-FF83-CB41-AAE2-5035AE6E16C0}" name="People"/>
     <tableColumn id="1" xr3:uid="{6FD593F6-C345-974D-933D-FC749EDBB157}" name="Record Date"/>
-    <tableColumn id="2" xr3:uid="{15AD3D5E-EF83-6546-A4FE-0B86CA16CA88}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{15AD3D5E-EF83-6546-A4FE-0B86CA16CA88}" name="Date" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{1ED970B8-C337-5D4F-B5A8-7AB2530E2359}" name="Account"/>
     <tableColumn id="4" xr3:uid="{EEAA2927-43F1-B744-8527-40D0D0E9936D}" name="ISIN"/>
     <tableColumn id="5" xr3:uid="{0EA1DB11-9FE8-934D-B07C-6945A710E2FD}" name="Stock"/>
     <tableColumn id="6" xr3:uid="{272913E2-1E54-2C45-80CD-6843C57552CE}" name="Nature"/>
     <tableColumn id="7" xr3:uid="{79D5F1AE-2819-AE4A-8B96-282AE4111C82}" name="Quantity"/>
-    <tableColumn id="8" xr3:uid="{DADE57C5-0E46-6746-A0AB-0C9AAB41E9E2}" name="Per Share" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{B575C695-6DE9-B146-9ED9-368D32B0C729}" name="Ratio" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{403EF57C-A4F3-7C4E-A4C6-5D54E2D0E2A8}" name="Dividend Amount" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{D5C383E4-A206-2D40-974E-4A42225ED82E}" name="Total Units" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{DADE57C5-0E46-6746-A0AB-0C9AAB41E9E2}" name="Per Share" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{B575C695-6DE9-B146-9ED9-368D32B0C729}" name="Ratio" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{403EF57C-A4F3-7C4E-A4C6-5D54E2D0E2A8}" name="Dividend Amount" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{D5C383E4-A206-2D40-974E-4A42225ED82E}" name="Total Units" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{71D272A4-B312-8C4C-B946-831230DC7CB7}" name="TaxOnDividend"/>
     <tableColumn id="11" xr3:uid="{48F92846-C887-5340-9893-9723B5AB06B5}" name="FinalAmount"/>
   </tableColumns>
@@ -3218,24 +3324,18 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{413EE8ED-1C2E-6844-82BF-A265CD4C35A6}" name="Table3" displayName="Table3" ref="A1:Q273" totalsRowShown="0">
-  <autoFilter ref="A1:Q273" xr:uid="{413EE8ED-1C2E-6844-82BF-A265CD4C35A6}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Executed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q273" xr:uid="{413EE8ED-1C2E-6844-82BF-A265CD4C35A6}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{749626B5-F3F2-3945-B121-B98CB0A96B1E}" name="Person"/>
     <tableColumn id="2" xr3:uid="{706C6171-6C85-4944-AE29-D3C3F3583B72}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{A2D40B47-4967-C64A-9182-091485684E6A}" name="Date" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A2D40B47-4967-C64A-9182-091485684E6A}" name="Date" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{5BCFE48E-58D1-A94C-B817-263D47389785}" name="Transaction ID"/>
     <tableColumn id="5" xr3:uid="{FD7B050B-A92C-044A-945B-4C77F389712E}" name="Transaction Type"/>
     <tableColumn id="6" xr3:uid="{4D6D2013-C60A-0E4F-B241-2AE9EE90CBB1}" name="Fund Name"/>
     <tableColumn id="7" xr3:uid="{0A1516F9-7859-C14A-816A-5BB2BD9EADEA}" name="Scheme Name"/>
     <tableColumn id="8" xr3:uid="{1D393BA1-453A-DF4C-8D45-89BA94B67277}" name="Folio No"/>
     <tableColumn id="9" xr3:uid="{56F26D36-AE6D-AD46-89E4-A7852A8C0009}" name="Last recorded NAV"/>
-    <tableColumn id="10" xr3:uid="{D6D71F70-1357-D946-B9F9-7BBF85DEB1E9}" name="Last recorded NAV On" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{D6D71F70-1357-D946-B9F9-7BBF85DEB1E9}" name="Last recorded NAV On" dataDxfId="20"/>
     <tableColumn id="11" xr3:uid="{6EF90D28-A94E-E746-9638-3F9E3EA4EE99}" name="Div-Reinvestment"/>
     <tableColumn id="12" xr3:uid="{897CE7E2-4A44-594A-A5FF-D9179111CFE9}" name="Amount"/>
     <tableColumn id="13" xr3:uid="{4C2F8C3E-95CF-1E4A-AD08-106718EDA162}" name="Secure Mind Premium Amount"/>
@@ -3255,8 +3355,8 @@
     <sortCondition ref="E2:E144"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D24591B3-E216-8D40-A95C-7791798C856E}" name="Person " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{226C7B2A-0A5E-4343-A7C2-ACEF96718284}" name="Account" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{D24591B3-E216-8D40-A95C-7791798C856E}" name="Person " dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{226C7B2A-0A5E-4343-A7C2-ACEF96718284}" name="Account" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{9BE64CD6-5BC7-C54A-8A02-A5602AE728A2}" name="AMC Name"/>
     <tableColumn id="4" xr3:uid="{3F1FB83B-D23F-3244-A7AB-6265DD4F5BF2}" name="Scheme Name"/>
     <tableColumn id="5" xr3:uid="{2B304844-D1AD-0F4C-9F20-58C883CB558E}" name="Record Date"/>
@@ -3265,7 +3365,7 @@
     <tableColumn id="8" xr3:uid="{DE9A2840-5F21-F74A-921B-D177FE4100BB}" name="Gross Amount(rs.)"/>
     <tableColumn id="9" xr3:uid="{A054CBE3-A57C-B341-9F81-737DE8A75663}" name="Units"/>
     <tableColumn id="10" xr3:uid="{4135883F-DFC4-0148-B9A4-0D963DBF04A8}" name="Dividend Type"/>
-    <tableColumn id="11" xr3:uid="{0848FCA6-35D7-094C-AF33-22A1FFBA89F4}" name=" Missing Date" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{0848FCA6-35D7-094C-AF33-22A1FFBA89F4}" name=" Missing Date" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3278,8 +3378,8 @@
     <tableColumn id="1" xr3:uid="{23163881-7E31-7B46-A375-9FB555FE9CD7}" name="Person"/>
     <tableColumn id="2" xr3:uid="{AAD497D8-F3B6-D04C-A94C-DDA752626E57}" name="Policy No"/>
     <tableColumn id="3" xr3:uid="{6C32D55C-8827-A842-ADDB-A6CB32AA543A}" name="Agency Code"/>
-    <tableColumn id="4" xr3:uid="{EC651C3D-5628-894C-919A-2B9418E32725}" name="Premium Due Date" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CF3189AE-A91A-CB44-978F-0F17593743CF}" name="Paid on" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{EC651C3D-5628-894C-919A-2B9418E32725}" name="Premium Due Date" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{CF3189AE-A91A-CB44-978F-0F17593743CF}" name="Paid on" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{A0C51315-5F64-6043-AF0C-64D2AEB2BA7E}" name="Transaction No"/>
     <tableColumn id="7" xr3:uid="{8C082829-0673-3C49-9ED9-16A2400DF679}" name="Transaction Type"/>
     <tableColumn id="8" xr3:uid="{90542E0C-78F8-3C44-AB2D-BC24A080C513}" name="Premium Amount"/>
@@ -3310,7 +3410,7 @@
     <tableColumn id="4" xr3:uid="{8E2B2B65-A750-534D-A85F-9A9001313E51}" name="Member ID"/>
     <tableColumn id="5" xr3:uid="{84942EA2-D70B-9548-8B23-2350F3695C55}" name="Year"/>
     <tableColumn id="6" xr3:uid="{0F8059C3-D672-E24A-8C98-AEF8CDBD3FFE}" name="Transaction Type"/>
-    <tableColumn id="7" xr3:uid="{F041853A-9AB0-3346-AFEE-B4E9866D8A53}" name="Date" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{F041853A-9AB0-3346-AFEE-B4E9866D8A53}" name="Date" dataDxfId="14"/>
     <tableColumn id="8" xr3:uid="{70F0825D-EA40-AD49-BD29-98BEEB0A1A0D}" name="Particulars"/>
     <tableColumn id="9" xr3:uid="{658A6304-2B1B-5348-8085-A978F2B8EB96}" name="Wages"/>
     <tableColumn id="10" xr3:uid="{3B30A7FA-DB79-AE4F-98BE-03A63154072C}" name="Contribution"/>
@@ -3328,9 +3428,9 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7711BE01-18A6-8C47-B9F5-454678DCF505}" name="Person"/>
     <tableColumn id="2" xr3:uid="{6E8EF78F-DE19-944F-9D42-EF9C41943A33}" name="Financial Year"/>
-    <tableColumn id="3" xr3:uid="{38672957-E911-6649-ADA3-70D4C9727659}" name="Date" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{65B8E558-D743-9D4C-803B-DC44ACF8623B}" name="Particulars" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C51610E1-510B-054C-9702-39FC1135D5D2}" name="Amount" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{38672957-E911-6649-ADA3-70D4C9727659}" name="Date" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{65B8E558-D743-9D4C-803B-DC44ACF8623B}" name="Particulars" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C51610E1-510B-054C-9702-39FC1135D5D2}" name="Amount" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{4A162B93-7283-354A-B65F-A8A767DCF522}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6699,10 +6799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB37A14D-5252-7042-8972-F4D6E9228613}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6713,9 +6813,10 @@
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6734,8 +6835,11 @@
       <c r="F1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="38" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -6751,8 +6855,11 @@
       <c r="E2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="38" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -6768,8 +6875,11 @@
       <c r="E3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -6785,8 +6895,11 @@
       <c r="E4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="38" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -6802,8 +6915,11 @@
       <c r="E5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -6819,8 +6935,11 @@
       <c r="E6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="38" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -6839,8 +6958,11 @@
       <c r="F7" s="1">
         <v>44876</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="38" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -6856,8 +6978,11 @@
       <c r="E8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6876,8 +7001,11 @@
       <c r="F9" s="1">
         <v>34845</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="38" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6893,8 +7021,11 @@
       <c r="E10" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="38" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -6910,8 +7041,11 @@
       <c r="E11" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="38" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -6930,8 +7064,11 @@
       <c r="F12" s="1">
         <v>43752</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="38" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -6950,8 +7087,11 @@
       <c r="F13" s="1">
         <v>44497</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="38" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6970,8 +7110,11 @@
       <c r="F14" s="1">
         <v>45686</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="38" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -6987,8 +7130,11 @@
       <c r="E15" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="38" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -7004,8 +7150,11 @@
       <c r="E16" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="38" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -7021,8 +7170,11 @@
       <c r="E17" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="38" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -7038,8 +7190,11 @@
       <c r="E18" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -7055,8 +7210,11 @@
       <c r="E19" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="38" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7072,8 +7230,11 @@
       <c r="E20" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -7089,8 +7250,11 @@
       <c r="E21" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="38" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7106,8 +7270,11 @@
       <c r="E22" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -7126,8 +7293,11 @@
       <c r="F23" s="1">
         <v>45513</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -7146,8 +7316,11 @@
       <c r="F24" s="1">
         <v>45827</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="38" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>446</v>
       </c>
@@ -7163,8 +7336,11 @@
       <c r="E25" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -7180,8 +7356,11 @@
       <c r="E26" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -7200,13 +7379,16 @@
       <c r="F27" s="1">
         <v>45303</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -7218,13 +7400,16 @@
         <v>545</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>546</v>
+      <c r="B29" s="39" t="s">
+        <v>506</v>
       </c>
       <c r="C29" t="s">
         <v>473</v>
@@ -7238,8 +7423,11 @@
       <c r="F29" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -7256,8 +7444,11 @@
         <v>548</v>
       </c>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -7276,9 +7467,13 @@
       <c r="F31" s="1">
         <v>44770</v>
       </c>
+      <c r="G31" s="38" t="s">
+        <v>668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7289,7 +7484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D0F15-B5AF-2B43-8EE8-D5A767C72F77}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -16715,7 +16910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E490D1BC-2804-2F4B-A84D-0FDC669319C7}">
   <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
+    <sheetView topLeftCell="A250" workbookViewId="0">
       <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
@@ -18154,7 +18349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -18404,7 +18599,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -29904,7 +30099,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="264" spans="1:17" hidden="1">
+    <row r="264" spans="1:17">
       <c r="A264" t="s">
         <v>82</v>
       </c>
@@ -30416,7 +30611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF4798-4406-9B45-98C1-81D349601EE7}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>

--- a/data/normalized/mdm.xlsx
+++ b/data/normalized/mdm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/repos/arunvambur/personal-analytics/data/normalized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E69880-7855-D748-9561-E5293D69516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504209AF-A86A-D640-B054-5F76BBCCE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="4" xr2:uid="{0D9B0028-07D1-7947-A175-A21F9F058AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="688">
   <si>
     <t>Person</t>
   </si>
@@ -2080,6 +2080,63 @@
   </si>
   <si>
     <t>TATSTE</t>
+  </si>
+  <si>
+    <t>INF209K01090</t>
+  </si>
+  <si>
+    <t>INF209K01LZ1</t>
+  </si>
+  <si>
+    <t>INF109KC1N75</t>
+  </si>
+  <si>
+    <t>INF109KC1Q80</t>
+  </si>
+  <si>
+    <t>INF109K01AN2</t>
+  </si>
+  <si>
+    <t>INF109K01ED5</t>
+  </si>
+  <si>
+    <t>INE356A01018</t>
+  </si>
+  <si>
+    <t>INF109K01EG8</t>
+  </si>
+  <si>
+    <t>AMFI Code</t>
+  </si>
+  <si>
+    <t>INF179K01822</t>
+  </si>
+  <si>
+    <t>INF917K01254</t>
+  </si>
+  <si>
+    <t>INF917K01239</t>
+  </si>
+  <si>
+    <t>INF846K01859</t>
+  </si>
+  <si>
+    <t>INF846K01164</t>
+  </si>
+  <si>
+    <t>INF769K01GS9</t>
+  </si>
+  <si>
+    <t>INF179KC1GL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF179KC1EC3 </t>
+  </si>
+  <si>
+    <t>INF959L01FQ0</t>
+  </si>
+  <si>
+    <t>INF090I01569</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2148,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2266,6 +2323,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="SansSerif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2717,7 +2780,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2776,6 +2839,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2822,7 +2887,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3182,7 +3250,7 @@
     <tableColumn id="1" xr3:uid="{10DE9821-BB62-9540-A58A-122CAD3F3AC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{D7E69AE7-23BC-174F-AB3D-BDF91431CD90}" name="Name"/>
     <tableColumn id="3" xr3:uid="{F229D4DB-0EDD-F64F-A22F-7E9FEF7A10BF}" name="DisplayName"/>
-    <tableColumn id="4" xr3:uid="{50FE2904-3015-5B45-9140-2F1B384AD178}" name="Dob" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{50FE2904-3015-5B45-9140-2F1B384AD178}" name="Dob" dataDxfId="41"/>
     <tableColumn id="5" xr3:uid="{FF9E5EB0-AFB8-A946-A83B-11BAFA15FE56}" name="GenderId"/>
     <tableColumn id="6" xr3:uid="{760A2E5F-6C0B-7E42-AA60-E6E3B078F34C}" name="IsFamilyHead"/>
     <tableColumn id="7" xr3:uid="{F955C30D-D2A1-F745-A684-FB311C4A3BC5}" name="FamilyHead"/>
@@ -3192,6 +3260,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{671CE2E6-185C-B24D-AB06-D1CDC3D189F0}" name="Table8" displayName="Table8" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31" xr:uid="{671CE2E6-185C-B24D-AB06-D1CDC3D189F0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7711BE01-18A6-8C47-B9F5-454678DCF505}" name="Person"/>
+    <tableColumn id="2" xr3:uid="{6E8EF78F-DE19-944F-9D42-EF9C41943A33}" name="Financial Year"/>
+    <tableColumn id="3" xr3:uid="{38672957-E911-6649-ADA3-70D4C9727659}" name="Date" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{65B8E558-D743-9D4C-803B-DC44ACF8623B}" name="Particulars" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C51610E1-510B-054C-9702-39FC1135D5D2}" name="Amount" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4A162B93-7283-354A-B65F-A8A767DCF522}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4DC92EE5-124D-7D4E-BA74-EC93B6E4F5B9}" name="Table11" displayName="Table11" ref="A1:I9" totalsRowShown="0">
   <autoFilter ref="A1:I9" xr:uid="{4DC92EE5-124D-7D4E-BA74-EC93B6E4F5B9}"/>
   <tableColumns count="9">
@@ -3209,37 +3292,37 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DC1CD4F0-37A0-5F41-B5E1-B85B99D84150}" name="Table10" displayName="Table10" ref="A1:J10" totalsRowShown="0">
   <autoFilter ref="A1:J10" xr:uid="{DC1CD4F0-37A0-5F41-B5E1-B85B99D84150}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1019A78D-FD88-274C-ADF7-D0B577CAF779}" name="Person"/>
     <tableColumn id="2" xr3:uid="{0C2F4C8F-C5C1-BB47-A5C8-8CA089D9554B}" name="Account"/>
     <tableColumn id="3" xr3:uid="{032CAA0E-3C9A-C74A-BEE2-1991D924B223}" name="Pran"/>
-    <tableColumn id="4" xr3:uid="{66E6423A-FFFD-5E40-A617-D3D427E17E92}" name="Contribution Date" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1682400D-E90F-6F47-9162-0DD08B859326}" name="Self Contribution" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{AED5945E-6CA4-2547-9F20-F440E51D273F}" name="Gross Contribution Amount" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{BB38DA8A-92AE-9747-AB7D-C7A9255159E3}" name="Service Charges" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{12F59806-4C0F-9F43-81F2-A0B24BAC055A}" name="GST" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{2CB0527E-E725-E446-88E4-053381A9500E}" name="Net Contribution Amount" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{66E6423A-FFFD-5E40-A617-D3D427E17E92}" name="Contribution Date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1682400D-E90F-6F47-9162-0DD08B859326}" name="Self Contribution" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{AED5945E-6CA4-2547-9F20-F440E51D273F}" name="Gross Contribution Amount" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{BB38DA8A-92AE-9747-AB7D-C7A9255159E3}" name="Service Charges" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{12F59806-4C0F-9F43-81F2-A0B24BAC055A}" name="GST" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2CB0527E-E725-E446-88E4-053381A9500E}" name="Net Contribution Amount" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{DE3D2D83-5648-0B43-8EA8-6243CE3B3EB0}" name="Account Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3CE49866-41A1-E245-8E6F-AF4980036204}" name="Table12" displayName="Table12" ref="A1:I68" totalsRowShown="0">
   <autoFilter ref="A1:I68" xr:uid="{3CE49866-41A1-E245-8E6F-AF4980036204}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AA226644-822D-0144-80ED-9B295E5C69CC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{85819774-7B4A-8A48-8235-C5A97D157FE1}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1FAD624B-EFC7-8B44-A1A2-B2B431400749}" name="Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2DAFC7E5-D2A1-C84D-91CA-590F1D2D8AE8}" name="Type" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{E21CFFCC-B366-AF4C-9429-07B760EB6AD7}" name="Scheme"/>
     <tableColumn id="9" xr3:uid="{9D4E1016-5E5A-7B41-AE4B-DFCD445AD6D4}" name="Particulars"/>
     <tableColumn id="6" xr3:uid="{CE9A0357-2B9E-C04C-9B44-E2D25E7F28F5}" name="Rate of Interest"/>
-    <tableColumn id="7" xr3:uid="{2DA438FA-E99D-0746-801C-DFB9D8F8A6B7}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2DA438FA-E99D-0746-801C-DFB9D8F8A6B7}" name="Amount" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{E529750B-EC3E-CD41-B54B-F2F30B0D043D}" name="Marutiry Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3247,19 +3330,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}" name="ISINTable" displayName="ISINTable" ref="A1:G31" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}" name="ISINTable" displayName="ISINTable" ref="A1:G31" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:G31" xr:uid="{3478D0AF-1514-EB4A-8A5D-C5ECD02546DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
     <sortCondition ref="B2:B31"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C91CFA9A-AB89-9341-9F89-D481613B35F0}" name="ISIN" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{94B85035-7256-DF49-A14F-D99830860AAE}" name="Company" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{1FAF0D6D-A333-C14D-8320-F5B0EEC2AFF8}" name="NSE Symbol" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{0969A61B-61F8-2A43-9C8D-745D74851EA3}" name="BSE Code" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{F59184CE-A708-4B46-AAA4-9119706B3E96}" name="Incorporation Date" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{3F95A63A-F7FB-0F44-A472-49446749F45E}" name="ISIN Creation Date" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E11E9DC1-916F-114C-991E-73874650D707}" name="ICICI Breeze Code" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C91CFA9A-AB89-9341-9F89-D481613B35F0}" name="ISIN" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{94B85035-7256-DF49-A14F-D99830860AAE}" name="Company" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{1FAF0D6D-A333-C14D-8320-F5B0EEC2AFF8}" name="NSE Symbol" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{0969A61B-61F8-2A43-9C8D-745D74851EA3}" name="BSE Code" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{F59184CE-A708-4B46-AAA4-9119706B3E96}" name="Incorporation Date" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{3F95A63A-F7FB-0F44-A472-49446749F45E}" name="ISIN Creation Date" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{E11E9DC1-916F-114C-991E-73874650D707}" name="ICICI Breeze Code" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3271,7 +3354,7 @@
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{402B9537-46B3-D440-B7E5-FB14BE83DAEC}" name="Person"/>
     <tableColumn id="2" xr3:uid="{27B331BE-0616-4343-992A-640D2131D6EE}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{F8C0F30E-0A07-454A-98E4-2A39D664C705}" name="Trade Date" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{F8C0F30E-0A07-454A-98E4-2A39D664C705}" name="Trade Date" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{F66FD8B2-E1FB-9747-8FAC-221378536716}" name="ISIN"/>
     <tableColumn id="5" xr3:uid="{AB3B46B3-3390-A24B-88BF-711CB56D2780}" name="Security"/>
     <tableColumn id="6" xr3:uid="{5412213A-12EC-8941-A589-C643C34E10EB}" name="Segment"/>
@@ -3297,7 +3380,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}" name="Table15" displayName="Table15" ref="A1:N151" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}" name="Table15" displayName="Table15" ref="A1:N151" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:N151" xr:uid="{92851E3D-CC2E-2646-9CDE-D7F28D8FA284}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N151">
     <sortCondition ref="C2:C151"/>
@@ -3305,16 +3388,16 @@
   <tableColumns count="14">
     <tableColumn id="12" xr3:uid="{3840908B-FF83-CB41-AAE2-5035AE6E16C0}" name="People"/>
     <tableColumn id="1" xr3:uid="{6FD593F6-C345-974D-933D-FC749EDBB157}" name="Record Date"/>
-    <tableColumn id="2" xr3:uid="{15AD3D5E-EF83-6546-A4FE-0B86CA16CA88}" name="Date" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{15AD3D5E-EF83-6546-A4FE-0B86CA16CA88}" name="Date" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{1ED970B8-C337-5D4F-B5A8-7AB2530E2359}" name="Account"/>
     <tableColumn id="4" xr3:uid="{EEAA2927-43F1-B744-8527-40D0D0E9936D}" name="ISIN"/>
     <tableColumn id="5" xr3:uid="{0EA1DB11-9FE8-934D-B07C-6945A710E2FD}" name="Stock"/>
     <tableColumn id="6" xr3:uid="{272913E2-1E54-2C45-80CD-6843C57552CE}" name="Nature"/>
     <tableColumn id="7" xr3:uid="{79D5F1AE-2819-AE4A-8B96-282AE4111C82}" name="Quantity"/>
-    <tableColumn id="8" xr3:uid="{DADE57C5-0E46-6746-A0AB-0C9AAB41E9E2}" name="Per Share" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{B575C695-6DE9-B146-9ED9-368D32B0C729}" name="Ratio" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{403EF57C-A4F3-7C4E-A4C6-5D54E2D0E2A8}" name="Dividend Amount" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{D5C383E4-A206-2D40-974E-4A42225ED82E}" name="Total Units" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{DADE57C5-0E46-6746-A0AB-0C9AAB41E9E2}" name="Per Share" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{B575C695-6DE9-B146-9ED9-368D32B0C729}" name="Ratio" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{403EF57C-A4F3-7C4E-A4C6-5D54E2D0E2A8}" name="Dividend Amount" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{D5C383E4-A206-2D40-974E-4A42225ED82E}" name="Total Units" dataDxfId="23"/>
     <tableColumn id="10" xr3:uid="{71D272A4-B312-8C4C-B946-831230DC7CB7}" name="TaxOnDividend"/>
     <tableColumn id="11" xr3:uid="{48F92846-C887-5340-9893-9723B5AB06B5}" name="FinalAmount"/>
   </tableColumns>
@@ -3323,19 +3406,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{157DCE0B-3237-EB42-B766-635F298156EE}" name="Table13" displayName="Table13" ref="A1:G21" totalsRowShown="0">
+  <autoFilter ref="A1:G21" xr:uid="{157DCE0B-3237-EB42-B766-635F298156EE}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F1588E3F-4FB6-E849-A4B6-08EC517E5614}" name="Person"/>
+    <tableColumn id="2" xr3:uid="{1436FF0B-32B4-4E4D-B2FA-83156B620366}" name="Account"/>
+    <tableColumn id="3" xr3:uid="{E5F332EA-64D4-054A-B547-5967174C1FBA}" name="Fund Name"/>
+    <tableColumn id="4" xr3:uid="{77A5440E-EADE-E841-BD5F-27F00CD99EE6}" name="Scheme Name"/>
+    <tableColumn id="5" xr3:uid="{3DD2F7C4-9950-FA44-8E25-3656B70E22A0}" name="Folio No"/>
+    <tableColumn id="6" xr3:uid="{A3F4B0D8-6720-6543-A621-C85731D70C29}" name="ISIN"/>
+    <tableColumn id="7" xr3:uid="{FEED7431-2B2F-2E43-9774-606DD8E56A77}" name="AMFI Code" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{413EE8ED-1C2E-6844-82BF-A265CD4C35A6}" name="Table3" displayName="Table3" ref="A1:Q273" totalsRowShown="0">
   <autoFilter ref="A1:Q273" xr:uid="{413EE8ED-1C2E-6844-82BF-A265CD4C35A6}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{749626B5-F3F2-3945-B121-B98CB0A96B1E}" name="Person"/>
     <tableColumn id="2" xr3:uid="{706C6171-6C85-4944-AE29-D3C3F3583B72}" name="Account"/>
-    <tableColumn id="3" xr3:uid="{A2D40B47-4967-C64A-9182-091485684E6A}" name="Date" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A2D40B47-4967-C64A-9182-091485684E6A}" name="Date" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{5BCFE48E-58D1-A94C-B817-263D47389785}" name="Transaction ID"/>
     <tableColumn id="5" xr3:uid="{FD7B050B-A92C-044A-945B-4C77F389712E}" name="Transaction Type"/>
     <tableColumn id="6" xr3:uid="{4D6D2013-C60A-0E4F-B241-2AE9EE90CBB1}" name="Fund Name"/>
     <tableColumn id="7" xr3:uid="{0A1516F9-7859-C14A-816A-5BB2BD9EADEA}" name="Scheme Name"/>
     <tableColumn id="8" xr3:uid="{1D393BA1-453A-DF4C-8D45-89BA94B67277}" name="Folio No"/>
     <tableColumn id="9" xr3:uid="{56F26D36-AE6D-AD46-89E4-A7852A8C0009}" name="Last recorded NAV"/>
-    <tableColumn id="10" xr3:uid="{D6D71F70-1357-D946-B9F9-7BBF85DEB1E9}" name="Last recorded NAV On" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{D6D71F70-1357-D946-B9F9-7BBF85DEB1E9}" name="Last recorded NAV On" dataDxfId="21"/>
     <tableColumn id="11" xr3:uid="{6EF90D28-A94E-E746-9638-3F9E3EA4EE99}" name="Div-Reinvestment"/>
     <tableColumn id="12" xr3:uid="{897CE7E2-4A44-594A-A5FF-D9179111CFE9}" name="Amount"/>
     <tableColumn id="13" xr3:uid="{4C2F8C3E-95CF-1E4A-AD08-106718EDA162}" name="Secure Mind Premium Amount"/>
@@ -3348,15 +3447,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F856DE6-D27D-EA47-84AA-4AC15C711567}" name="Table5" displayName="Table5" ref="A1:K196" totalsRowShown="0">
   <autoFilter ref="A1:K196" xr:uid="{1F856DE6-D27D-EA47-84AA-4AC15C711567}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K144">
     <sortCondition ref="E2:E144"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D24591B3-E216-8D40-A95C-7791798C856E}" name="Person " dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{226C7B2A-0A5E-4343-A7C2-ACEF96718284}" name="Account" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D24591B3-E216-8D40-A95C-7791798C856E}" name="Person " dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{226C7B2A-0A5E-4343-A7C2-ACEF96718284}" name="Account" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{9BE64CD6-5BC7-C54A-8A02-A5602AE728A2}" name="AMC Name"/>
     <tableColumn id="4" xr3:uid="{3F1FB83B-D23F-3244-A7AB-6265DD4F5BF2}" name="Scheme Name"/>
     <tableColumn id="5" xr3:uid="{2B304844-D1AD-0F4C-9F20-58C883CB558E}" name="Record Date"/>
@@ -3365,21 +3464,21 @@
     <tableColumn id="8" xr3:uid="{DE9A2840-5F21-F74A-921B-D177FE4100BB}" name="Gross Amount(rs.)"/>
     <tableColumn id="9" xr3:uid="{A054CBE3-A57C-B341-9F81-737DE8A75663}" name="Units"/>
     <tableColumn id="10" xr3:uid="{4135883F-DFC4-0148-B9A4-0D963DBF04A8}" name="Dividend Type"/>
-    <tableColumn id="11" xr3:uid="{0848FCA6-35D7-094C-AF33-22A1FFBA89F4}" name=" Missing Date" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0848FCA6-35D7-094C-AF33-22A1FFBA89F4}" name=" Missing Date" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{06D1D089-AA94-0A44-B160-F0A8CCDC3760}" name="Table6" displayName="Table6" ref="A1:K41" totalsRowShown="0">
   <autoFilter ref="A1:K41" xr:uid="{06D1D089-AA94-0A44-B160-F0A8CCDC3760}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{23163881-7E31-7B46-A375-9FB555FE9CD7}" name="Person"/>
     <tableColumn id="2" xr3:uid="{AAD497D8-F3B6-D04C-A94C-DDA752626E57}" name="Policy No"/>
     <tableColumn id="3" xr3:uid="{6C32D55C-8827-A842-ADDB-A6CB32AA543A}" name="Agency Code"/>
-    <tableColumn id="4" xr3:uid="{EC651C3D-5628-894C-919A-2B9418E32725}" name="Premium Due Date" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{CF3189AE-A91A-CB44-978F-0F17593743CF}" name="Paid on" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EC651C3D-5628-894C-919A-2B9418E32725}" name="Premium Due Date" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{CF3189AE-A91A-CB44-978F-0F17593743CF}" name="Paid on" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{A0C51315-5F64-6043-AF0C-64D2AEB2BA7E}" name="Transaction No"/>
     <tableColumn id="7" xr3:uid="{8C082829-0673-3C49-9ED9-16A2400DF679}" name="Transaction Type"/>
     <tableColumn id="8" xr3:uid="{90542E0C-78F8-3C44-AB2D-BC24A080C513}" name="Premium Amount"/>
@@ -3391,7 +3490,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7534FB19-C0C5-7F47-982C-2CEBEF6AAF09}" name="Table7" displayName="Table7" ref="A1:M235" totalsRowShown="0">
   <autoFilter ref="A1:M235" xr:uid="{7534FB19-C0C5-7F47-982C-2CEBEF6AAF09}">
     <filterColumn colId="5">
@@ -3410,7 +3509,7 @@
     <tableColumn id="4" xr3:uid="{8E2B2B65-A750-534D-A85F-9A9001313E51}" name="Member ID"/>
     <tableColumn id="5" xr3:uid="{84942EA2-D70B-9548-8B23-2350F3695C55}" name="Year"/>
     <tableColumn id="6" xr3:uid="{0F8059C3-D672-E24A-8C98-AEF8CDBD3FFE}" name="Transaction Type"/>
-    <tableColumn id="7" xr3:uid="{F041853A-9AB0-3346-AFEE-B4E9866D8A53}" name="Date" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{F041853A-9AB0-3346-AFEE-B4E9866D8A53}" name="Date" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{70F0825D-EA40-AD49-BD29-98BEEB0A1A0D}" name="Particulars"/>
     <tableColumn id="9" xr3:uid="{658A6304-2B1B-5348-8085-A978F2B8EB96}" name="Wages"/>
     <tableColumn id="10" xr3:uid="{3B30A7FA-DB79-AE4F-98BE-03A63154072C}" name="Contribution"/>
@@ -3419,21 +3518,6 @@
     <tableColumn id="13" xr3:uid="{F55E5AB7-F552-254B-8210-34F7B1E75D34}" name="Pension"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{671CE2E6-185C-B24D-AB06-D1CDC3D189F0}" name="Table8" displayName="Table8" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{671CE2E6-185C-B24D-AB06-D1CDC3D189F0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7711BE01-18A6-8C47-B9F5-454678DCF505}" name="Person"/>
-    <tableColumn id="2" xr3:uid="{6E8EF78F-DE19-944F-9D42-EF9C41943A33}" name="Financial Year"/>
-    <tableColumn id="3" xr3:uid="{38672957-E911-6649-ADA3-70D4C9727659}" name="Date" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{65B8E558-D743-9D4C-803B-DC44ACF8623B}" name="Particulars" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C51610E1-510B-054C-9702-39FC1135D5D2}" name="Amount" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{4A162B93-7283-354A-B65F-A8A767DCF522}" name="Type"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6801,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB37A14D-5252-7042-8972-F4D6E9228613}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -16896,13 +16980,510 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C688DF6-01B1-FC42-B0D8-C9E9ABB124B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1039297412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="8">
+        <v>103164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G3" s="8">
+        <v>100120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G4" s="8">
+        <v>102528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>679</v>
+      </c>
+      <c r="G5" s="8">
+        <v>112496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="25">
+        <v>91087813195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" s="8">
+        <v>114564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G7" s="8">
+        <v>101143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="25">
+        <v>91087813195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G8" s="8">
+        <v>114564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>682</v>
+      </c>
+      <c r="G9" s="8">
+        <v>112277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1039297412</v>
+      </c>
+      <c r="F10" t="s">
+        <v>670</v>
+      </c>
+      <c r="G10" s="8">
+        <v>101317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="25">
+        <v>79932348715</v>
+      </c>
+      <c r="F11" t="s">
+        <v>683</v>
+      </c>
+      <c r="G11" s="8">
+        <v>148572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G12" s="8">
+        <v>148517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>672</v>
+      </c>
+      <c r="G13" s="8">
+        <v>148989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G14" s="8">
+        <v>151751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>685</v>
+      </c>
+      <c r="G15" s="8">
+        <v>150806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="G16" s="41">
+        <v>112495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>678</v>
+      </c>
+      <c r="G17" s="8">
+        <v>100120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s">
+        <v>675</v>
+      </c>
+      <c r="G18" s="8">
+        <v>102529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>676</v>
+      </c>
+      <c r="G19" s="8">
+        <v>104686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="25">
+        <v>9778075610</v>
+      </c>
+      <c r="F20" t="s">
+        <v>686</v>
+      </c>
+      <c r="G20" s="8">
+        <v>149040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="25">
+        <v>34055597</v>
+      </c>
+      <c r="F21" t="s">
+        <v>687</v>
+      </c>
+      <c r="G21" s="8">
+        <v>103360</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -16910,8 +17491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E490D1BC-2804-2F4B-A84D-0FDC669319C7}">
   <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="F274" sqref="F274"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
